--- a/mbs-perturbation/nano/svm/nearmiss/nano-svm-linear-nearmiss-results.xlsx
+++ b/mbs-perturbation/nano/svm/nearmiss/nano-svm-linear-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5909090909090909</v>
+        <v>0.64</v>
       </c>
       <c r="C2" t="n">
-        <v>0.65</v>
+        <v>0.8</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6190476190476191</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6976190476190476</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.6</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7142857142857143</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7692307692307692</v>
+        <v>0.7499999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8476190476190476</v>
+        <v>0.8928571428571428</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8421052631578948</v>
+        <v>0.8163265306122449</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.9175</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9444444444444444</v>
+        <v>0.36</v>
       </c>
       <c r="C5" t="n">
-        <v>0.85</v>
+        <v>0.45</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8947368421052632</v>
+        <v>0.4</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8475</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7727272727272727</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C6" t="n">
-        <v>0.85</v>
+        <v>0.25</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8095238095238095</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7949999999999999</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.806060606060606</v>
+        <v>0.5293596059113301</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7728571428571429</v>
+        <v>0.7</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7869288606130711</v>
+        <v>0.5943110577564359</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7943571428571429</v>
+        <v>0.6540952380952382</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/nano/svm/nearmiss/nano-svm-linear-nearmiss-results.xlsx
+++ b/mbs-perturbation/nano/svm/nearmiss/nano-svm-linear-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.64</v>
+        <v>0.5</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7111111111111111</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6976190476190476</v>
+        <v>0.4099722991689751</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7499999999999999</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8928571428571428</v>
+        <v>0.925207756232687</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6896551724137931</v>
+        <v>0.5</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8163265306122449</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9175</v>
+        <v>0.6038781163434903</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.36</v>
+        <v>0.4864864864864865</v>
       </c>
       <c r="C5" t="n">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4</v>
+        <v>0.6545454545454547</v>
       </c>
       <c r="E5" t="n">
-        <v>0.375</v>
+        <v>0.8421052631578948</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3571428571428572</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="C6" t="n">
-        <v>0.25</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2941176470588235</v>
+        <v>0.6399999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3875</v>
+        <v>0.5789473684210527</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5293596059113301</v>
+        <v>0.5505231037489102</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5943110577564359</v>
+        <v>0.535844908714474</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6540952380952382</v>
+        <v>0.67202216066482</v>
       </c>
     </row>
   </sheetData>
